--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/17/incorrect_predictions_17.xlsx
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori5/17/incorrect_predictions_17.xlsx
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
